--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2055785.347274254</v>
+        <v>-2058372.858479831</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.0904450475561</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812898</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
         <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8173955166055179</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>49.05729987981367</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339733</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.62837588899008</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978304</v>
       </c>
       <c r="S4" t="n">
-        <v>126.6382157296327</v>
+        <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>184.0679297859923</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>83.25345723948203</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>128.5288064363891</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>8.140001196962796</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>272.1579065981225</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.5754705974928</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>35.87403110738192</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>152.6250124446335</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>69.60662835550697</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819426</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>35.88641949135054</v>
+        <v>176.7621441121398</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289881</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.799772605716112</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>164.1303830823236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053457</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>97.24762927924185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2801,10 +2801,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526174</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3472,7 +3472,7 @@
         <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1991.273312694068</v>
+        <v>1552.764853912966</v>
       </c>
       <c r="C2" t="n">
-        <v>1622.310795753656</v>
+        <v>1183.802336972555</v>
       </c>
       <c r="D2" t="n">
-        <v>1622.310795753656</v>
+        <v>825.5366383658043</v>
       </c>
       <c r="E2" t="n">
-        <v>1236.522543155412</v>
+        <v>825.5366383658043</v>
       </c>
       <c r="F2" t="n">
-        <v>825.5366383658044</v>
+        <v>825.5366383658043</v>
       </c>
       <c r="G2" t="n">
         <v>410.2937645803942</v>
@@ -4331,10 +4331,10 @@
         <v>237.1001391730315</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315697</v>
+        <v>549.6723906315699</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529747</v>
+        <v>974.3476699529745</v>
       </c>
       <c r="M2" t="n">
         <v>1478.550181808271</v>
@@ -4355,25 +4355,25 @@
         <v>3119.882870623639</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.708673672841</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="T2" t="n">
-        <v>3005.708673672841</v>
+        <v>2913.159093565755</v>
       </c>
       <c r="U2" t="n">
-        <v>2752.164563056245</v>
+        <v>2659.614982949159</v>
       </c>
       <c r="V2" t="n">
-        <v>2752.164563056245</v>
+        <v>2328.552095605588</v>
       </c>
       <c r="W2" t="n">
-        <v>2751.33891101927</v>
+        <v>1975.783440335474</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.87315275819</v>
+        <v>1602.317682074394</v>
       </c>
       <c r="Y2" t="n">
-        <v>2377.87315275819</v>
+        <v>1552.764853912966</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4407,28 @@
         <v>62.39765741247278</v>
       </c>
       <c r="J3" t="n">
-        <v>147.6314117602529</v>
+        <v>272.4615367472577</v>
       </c>
       <c r="K3" t="n">
-        <v>371.4642984981863</v>
+        <v>496.294423485191</v>
       </c>
       <c r="L3" t="n">
-        <v>718.7577785663805</v>
+        <v>843.5879035533851</v>
       </c>
       <c r="M3" t="n">
-        <v>1143.389757203036</v>
+        <v>1268.219882190041</v>
       </c>
       <c r="N3" t="n">
-        <v>1593.669125698064</v>
+        <v>1718.499250685069</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.36698345726</v>
+        <v>2108.197108444264</v>
       </c>
       <c r="P3" t="n">
-        <v>2410.51172267956</v>
+        <v>2401.630929422765</v>
       </c>
       <c r="Q3" t="n">
-        <v>2556.745264694707</v>
+        <v>2547.864471437912</v>
       </c>
       <c r="R3" t="n">
         <v>2556.745264694707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2361.534886125961</v>
+        <v>162.0222795225638</v>
       </c>
       <c r="C4" t="n">
-        <v>2192.598703198054</v>
+        <v>162.0222795225637</v>
       </c>
       <c r="D4" t="n">
-        <v>2042.482063785718</v>
+        <v>162.0222795225638</v>
       </c>
       <c r="E4" t="n">
-        <v>1894.568970203325</v>
+        <v>162.0222795225638</v>
       </c>
       <c r="F4" t="n">
-        <v>1747.679022705415</v>
+        <v>162.0222795225638</v>
       </c>
       <c r="G4" t="n">
-        <v>1579.899739906576</v>
+        <v>162.0222795225638</v>
       </c>
       <c r="H4" t="n">
-        <v>1433.002877144987</v>
+        <v>162.0222795225638</v>
       </c>
       <c r="I4" t="n">
-        <v>1333.378255034896</v>
+        <v>62.39765741247278</v>
       </c>
       <c r="J4" t="n">
-        <v>1373.203697426284</v>
+        <v>102.2230998038608</v>
       </c>
       <c r="K4" t="n">
-        <v>1568.48596988141</v>
+        <v>297.5053722589867</v>
       </c>
       <c r="L4" t="n">
-        <v>1873.906479893693</v>
+        <v>602.9258822712702</v>
       </c>
       <c r="M4" t="n">
-        <v>2206.318707680743</v>
+        <v>935.3381100583199</v>
       </c>
       <c r="N4" t="n">
-        <v>2536.261532090731</v>
+        <v>1265.280934468308</v>
       </c>
       <c r="O4" t="n">
-        <v>2825.000837712488</v>
+        <v>1554.020240090065</v>
       </c>
       <c r="P4" t="n">
-        <v>3048.546512699445</v>
+        <v>1777.565915077022</v>
       </c>
       <c r="Q4" t="n">
-        <v>3119.882870623639</v>
+        <v>1848.902273001216</v>
       </c>
       <c r="R4" t="n">
-        <v>3119.882870623639</v>
+        <v>1755.634517809516</v>
       </c>
       <c r="S4" t="n">
-        <v>2991.965480997748</v>
+        <v>1562.6163853208</v>
       </c>
       <c r="T4" t="n">
-        <v>2991.965480997748</v>
+        <v>1340.523136239672</v>
       </c>
       <c r="U4" t="n">
-        <v>2991.965480997748</v>
+        <v>1051.416099574031</v>
       </c>
       <c r="V4" t="n">
-        <v>2991.965480997748</v>
+        <v>796.7316113681439</v>
       </c>
       <c r="W4" t="n">
-        <v>2991.965480997748</v>
+        <v>610.8044095641112</v>
       </c>
       <c r="X4" t="n">
-        <v>2763.975930099731</v>
+        <v>382.8148586660939</v>
       </c>
       <c r="Y4" t="n">
-        <v>2543.183350956201</v>
+        <v>162.0222795225638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1270.470666346907</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>912.2049677401565</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2736.270520058755</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2736.270520058755</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2362.804761797675</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>952.9459563751726</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>784.0097734472657</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>633.89313403493</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>485.9800404525369</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1430.620956296279</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205412</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.594421205412</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y7" t="n">
-        <v>1134.594421205412</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4820,10 +4820,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2973.101010462527</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2642.038123118956</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2289.269467848841</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805452</v>
+        <v>2289.269467848841</v>
       </c>
       <c r="Y8" t="n">
-        <v>2257.256030805452</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.3382468580007</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1773.127868851489</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1518.443380645602</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="X10" t="n">
-        <v>452.6479724696239</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.3382468580007</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5203,7 +5203,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.11271002608</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820193</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783232</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885215</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741685</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003835</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5604,16 +5604,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.917417812164</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.917417812164</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E19" t="n">
-        <v>344.917417812164</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F19" t="n">
-        <v>344.917417812164</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270439</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>779.6143379232836</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2281.17481784054</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2061.573352863481</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1772.498126207679</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V22" t="n">
-        <v>1517.813638001792</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1228.396467964831</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1000.406917066814</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>779.6143379232836</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057243</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778174</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654817</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830886</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851782</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797744</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7160,25 +7160,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,7 +7245,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273902</v>
@@ -7260,10 +7260,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7312,13 +7312,13 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,16 +7360,16 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
@@ -7397,64 +7397,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192468</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,43 +7473,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797183</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7670,28 +7670,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,43 +7710,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797183</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150016</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>135.0615335795955</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113657</v>
+        <v>14.71824250930026</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>348.4235732008075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>337.1806387762399</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978304</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>64.44973543419559</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>102.4550685505987</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548978936</v>
+        <v>109.4223302771044</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238325</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>43.2652634529492</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.89590291932097</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.2291039219426</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>154.8900140445862</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1108765.865853667</v>
+        <v>1108765.865853666</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1343380.824823745</v>
+        <v>1343380.824823744</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1343380.824823745</v>
+        <v>1343380.824823744</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66311.33934030094</v>
+        <v>66311.33934030097</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642837</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>80714.65996900057</v>
+      </c>
+      <c r="F2" t="n">
         <v>80714.65996900058</v>
       </c>
-      <c r="F2" t="n">
-        <v>80714.65996900055</v>
-      </c>
       <c r="G2" t="n">
+        <v>80714.65996900058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="I2" t="n">
         <v>80714.6599690006</v>
       </c>
-      <c r="H2" t="n">
-        <v>80714.65996900055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>80714.65996900058</v>
-      </c>
       <c r="J2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="K2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="L2" t="n">
         <v>82104.17698642836</v>
       </c>
-      <c r="L2" t="n">
-        <v>82104.17698642834</v>
-      </c>
       <c r="M2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="O2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.17698642837</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023777</v>
+        <v>54832.77288023804</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>204074.6584503629</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594282</v>
+        <v>32664.34410594287</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-11</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551175</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363175</v>
       </c>
     </row>
     <row r="4">
@@ -26418,22 +26418,22 @@
         <v>15222.7247270245</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.95495316936</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316942</v>
       </c>
-      <c r="D4" t="n">
-        <v>91573.95495316939</v>
-      </c>
       <c r="E4" t="n">
+        <v>12386.92018181811</v>
+      </c>
+      <c r="F4" t="n">
         <v>12386.9201818181</v>
       </c>
-      <c r="F4" t="n">
-        <v>12386.92018181813</v>
-      </c>
       <c r="G4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26448,16 +26448,16 @@
         <v>20377.77944491161</v>
       </c>
       <c r="M4" t="n">
+        <v>20377.77944491167</v>
+      </c>
+      <c r="N4" t="n">
         <v>20377.7794449116</v>
       </c>
-      <c r="N4" t="n">
-        <v>20377.77944491164</v>
-      </c>
       <c r="O4" t="n">
-        <v>20377.77944491168</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1323870.711475107</v>
+        <v>-1324265.532416261</v>
       </c>
       <c r="C6" t="n">
-        <v>-172236.4914083721</v>
+        <v>-172236.4914083724</v>
       </c>
       <c r="D6" t="n">
         <v>-117403.7185281344</v>
       </c>
       <c r="E6" t="n">
-        <v>-358207.2518440797</v>
+        <v>-358241.9897695155</v>
       </c>
       <c r="F6" t="n">
-        <v>-32794.79003672469</v>
+        <v>-32829.52796216033</v>
       </c>
       <c r="G6" t="n">
-        <v>-32794.79003672466</v>
+        <v>-32829.5279621604</v>
       </c>
       <c r="H6" t="n">
-        <v>-32794.79003672469</v>
+        <v>-32829.52796216034</v>
       </c>
       <c r="I6" t="n">
-        <v>-32794.79003672466</v>
+        <v>-32829.52796216034</v>
       </c>
       <c r="J6" t="n">
-        <v>-236869.4484870875</v>
+        <v>-236904.1864125232</v>
       </c>
       <c r="K6" t="n">
-        <v>-74102.06241834148</v>
+        <v>-74102.06241834152</v>
       </c>
       <c r="L6" t="n">
-        <v>-41437.71831239867</v>
+        <v>-41437.71831239869</v>
       </c>
       <c r="M6" t="n">
         <v>-126492.7462479104</v>
       </c>
       <c r="N6" t="n">
-        <v>-41437.71831239866</v>
+        <v>-41437.7183123986</v>
       </c>
       <c r="O6" t="n">
-        <v>-41437.7183123987</v>
+        <v>-41437.7183123986</v>
       </c>
       <c r="P6" t="n">
-        <v>-60865.43630603036</v>
+        <v>-60865.43630603039</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>779.9707176559098</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26960,7 +26960,7 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303232</v>
+        <v>41.96894928303254</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>779.9707176559098</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638276</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>779.9707176559098</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638276</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>779.9707176559098</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638276</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>298.6769128327797</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>199.2234520337458</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>137.2810468259684</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>14.05393160749037</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.1583710659878</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>215.1211408515201</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.5868257609794</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.9780249965878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.965435133550909e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-9.831888791845542e-13</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29521,10 +29521,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,31 +32075,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,31 +32549,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32941,13 +32941,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236526</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,22 +33971,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236526</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.0947013613941</v>
+        <v>212.1857367018029</v>
       </c>
       <c r="K3" t="n">
         <v>226.0938249878114</v>
@@ -34793,13 +34793,13 @@
         <v>393.6341997567631</v>
       </c>
       <c r="P3" t="n">
-        <v>431.4593325477782</v>
+        <v>296.3977989681827</v>
       </c>
       <c r="Q3" t="n">
         <v>147.7106485001481</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.970498239186599</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096358</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,13 +36589,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168383</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168383</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,22 +38178,22 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
